--- a/data/trans_dic/P62A$viudedad-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Estudios-trans_dic.xlsx
@@ -715,31 +715,31 @@
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.09236179933408099</v>
+        <v>0.09370909734473752</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4968432298364487</v>
+        <v>0.4951617025424839</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4752660454896414</v>
+        <v>0.47983804648256</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.405439117889269</v>
+        <v>0.4064235300064908</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04437054610455849</v>
+        <v>0.04255403268180304</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2276641405026588</v>
+        <v>0.2298865870224606</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2335773672538712</v>
+        <v>0.2339680318028245</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1946852995407048</v>
+        <v>0.1967089394348133</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07115025875578403</v>
+        <v>0.07099793864769093</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01384483860407933</v>
+        <v>0.01205721659116376</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01991008977162465</v>
+        <v>0.01937335119562394</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1586275628674949</v>
+        <v>0.1572391383198842</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5908807818501995</v>
+        <v>0.5889084685138486</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5606274366106192</v>
+        <v>0.5660257314793461</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5094735241137727</v>
+        <v>0.5085862160036605</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0786360097858215</v>
+        <v>0.07765179475003842</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2852546497873005</v>
+        <v>0.2860237411981049</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2890882616690695</v>
+        <v>0.2901779184760608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2563176210642542</v>
+        <v>0.2573526156978886</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1057826131564325</v>
+        <v>0.1051575040877503</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.09985817487887674</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1619926491902727</v>
+        <v>0.1619926491902726</v>
       </c>
     </row>
     <row r="8">
@@ -845,31 +845,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1621342435156098</v>
+        <v>0.163567817642279</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2815748618103571</v>
+        <v>0.2932301974513094</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1574845858586175</v>
+        <v>0.160961479481268</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1947978213257147</v>
+        <v>0.1888260151559919</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08753534130469164</v>
+        <v>0.08634949064255819</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09092115105406906</v>
+        <v>0.09258100763064307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05999904307411604</v>
+        <v>0.06023861540020984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07748859654347635</v>
+        <v>0.07737365845235103</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1371537006386044</v>
+        <v>0.1382262633719586</v>
       </c>
     </row>
     <row r="9">
@@ -882,34 +882,34 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01380886500537814</v>
+        <v>0.01407428993339083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2335824767303051</v>
+        <v>0.2356356331374087</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5080682258721132</v>
+        <v>0.4859805272346945</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2916817953641562</v>
+        <v>0.2978376593030797</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3117881766594444</v>
+        <v>0.3086031221516874</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.14168613067125</v>
+        <v>0.1441030338771111</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1870701333814922</v>
+        <v>0.1831603224110624</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1153651387663516</v>
+        <v>0.1171784745235793</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1317914777798273</v>
+        <v>0.1269722244628722</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1868309401356145</v>
+        <v>0.1875105119598573</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04221231450535317</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09225151638408592</v>
+        <v>0.09225151638408594</v>
       </c>
     </row>
     <row r="11">
@@ -971,31 +971,31 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.05320403082885385</v>
+        <v>0.05701053405867427</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06351058205811463</v>
+        <v>0.0634739726311823</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02816682923878175</v>
+        <v>0.02812947896450227</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03688399862923728</v>
+        <v>0.03897148592866351</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04826352392858371</v>
+        <v>0.04798493784152117</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02285334213257878</v>
+        <v>0.02645884041620266</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01270288974780127</v>
+        <v>0.01401868083952464</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0164036120263708</v>
+        <v>0.01611987329783262</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0619513161487598</v>
+        <v>0.05912711290579088</v>
       </c>
     </row>
     <row r="12">
@@ -1009,31 +1009,31 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.1593689825982881</v>
+        <v>0.1617217176210783</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3021428253891683</v>
+        <v>0.3020762501645192</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2707527519576678</v>
+        <v>0.2873749733430022</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2131638065126095</v>
+        <v>0.2109229058617893</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1444615864180311</v>
+        <v>0.1409303145693452</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1268556142669533</v>
+        <v>0.1252481189143123</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1232780141146128</v>
+        <v>0.119713812772366</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08993787124373744</v>
+        <v>0.09570601059461134</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1323912054266333</v>
+        <v>0.1290209720569263</v>
       </c>
     </row>
     <row r="13">
@@ -1101,31 +1101,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1338266134629854</v>
+        <v>0.1328437974175067</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3947862473238938</v>
+        <v>0.3947880511366484</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3217044294333797</v>
+        <v>0.3189245135885726</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06770139240256197</v>
+        <v>0.06863649776291401</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1946335309514557</v>
+        <v>0.1926812353733689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1828347053700985</v>
+        <v>0.1827168411515462</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1450162433835569</v>
+        <v>0.1444431072642685</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1072644744762831</v>
+        <v>0.1072046177832595</v>
       </c>
     </row>
     <row r="15">
@@ -1136,40 +1136,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.009528505820974182</v>
+        <v>0.01009954173770025</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01336595018454022</v>
+        <v>0.0126156649620479</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.005206780936334807</v>
+        <v>0.007185437586751877</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1789392469675704</v>
+        <v>0.1786935270739187</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4670873951548185</v>
+        <v>0.4723193259300761</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3955943577941048</v>
+        <v>0.3947735307586695</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09927685894453878</v>
+        <v>0.09925798267355444</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2408313748449762</v>
+        <v>0.2411003927838093</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2246973316888238</v>
+        <v>0.2249194142010388</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1828438843289674</v>
+        <v>0.1819706633050834</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1353608864057758</v>
+        <v>0.134200437267406</v>
       </c>
     </row>
     <row r="16">
@@ -1446,31 +1446,31 @@
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>29629</v>
+        <v>30061</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>223508</v>
+        <v>222751</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>255098</v>
+        <v>257552</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>172508</v>
+        <v>172927</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18239</v>
+        <v>17493</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>218655</v>
+        <v>220789</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>253608</v>
+        <v>254032</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>168590</v>
+        <v>170342</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>52072</v>
+        <v>51961</v>
       </c>
     </row>
     <row r="7">
@@ -1481,38 +1481,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7069</v>
+        <v>6156</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10931</v>
+        <v>10636</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>50886</v>
+        <v>50441</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>265811</v>
+        <v>264924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>300915</v>
+        <v>303813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>216773</v>
+        <v>216395</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32325</v>
+        <v>31920</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>273966</v>
+        <v>274705</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>313879</v>
+        <v>315062</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>221961</v>
+        <v>222858</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>77418</v>
+        <v>76961</v>
       </c>
     </row>
     <row r="8">
@@ -1620,31 +1620,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69356</v>
+        <v>69969</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23933</v>
+        <v>24923</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26875</v>
+        <v>27469</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>50132</v>
+        <v>48596</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26664</v>
+        <v>26303</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22879</v>
+        <v>23297</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>26766</v>
+        <v>26873</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49972</v>
+        <v>49898</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>100449</v>
+        <v>101234</v>
       </c>
     </row>
     <row r="11">
@@ -1657,34 +1657,34 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>5351</v>
+        <v>5454</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>99919</v>
+        <v>100797</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>43184</v>
+        <v>41306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49776</v>
+        <v>50827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>80241</v>
+        <v>79421</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43160</v>
+        <v>43896</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>47074</v>
+        <v>46090</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>51465</v>
+        <v>52274</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>84992</v>
+        <v>81884</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>136831</v>
+        <v>137329</v>
       </c>
     </row>
     <row r="12">
@@ -1790,31 +1790,31 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>6542</v>
+        <v>7011</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1947</v>
+        <v>2057</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4135</v>
+        <v>4111</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2329</v>
+        <v>2696</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1031</v>
+        <v>1138</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2003</v>
+        <v>1968</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12926</v>
+        <v>12337</v>
       </c>
     </row>
     <row r="15">
@@ -1828,31 +1828,31 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>19598</v>
+        <v>19887</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12459</v>
+        <v>12456</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9632</v>
+        <v>10224</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11250</v>
+        <v>11132</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12377</v>
+        <v>12074</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12926</v>
+        <v>12762</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>10010</v>
+        <v>9721</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10979</v>
+        <v>11684</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>27623</v>
+        <v>26919</v>
       </c>
     </row>
     <row r="16">
@@ -1964,31 +1964,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>116634</v>
+        <v>115777</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>293317</v>
+        <v>293318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>236651</v>
+        <v>234606</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>54253</v>
+        <v>55002</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>255741</v>
+        <v>253176</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>294924</v>
+        <v>294734</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>236802</v>
+        <v>235866</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>179441</v>
+        <v>179341</v>
       </c>
     </row>
     <row r="19">
@@ -1999,40 +1999,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7031</v>
+        <v>7452</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11630</v>
+        <v>10977</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4672</v>
+        <v>6448</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>155950</v>
+        <v>155736</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>347035</v>
+        <v>350922</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>291006</v>
+        <v>290402</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>79556</v>
+        <v>79541</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>316443</v>
+        <v>316797</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>362451</v>
+        <v>362809</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>298572</v>
+        <v>297146</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>226443</v>
+        <v>224502</v>
       </c>
     </row>
     <row r="20">
